--- a/1º Iteración/Grupo Planificación y Gestión/Carga de trabajo.xlsx
+++ b/1º Iteración/Grupo Planificación y Gestión/Carga de trabajo.xlsx
@@ -4,37 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15480" windowHeight="8025"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Análisis" sheetId="1" r:id="rId1"/>
+    <sheet name="Implementacion" sheetId="2" r:id="rId2"/>
+    <sheet name="Gestion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>1h  req func</t>
-  </si>
-  <si>
-    <t>1h  req no func</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>Diagrama CU</t>
   </si>
@@ -42,48 +24,12 @@
     <t>Horas</t>
   </si>
   <si>
-    <t>Diagrama clases</t>
-  </si>
-  <si>
-    <t>Revisar Diag. Clases</t>
-  </si>
-  <si>
     <t>Plantilla C.Uso</t>
   </si>
   <si>
-    <t>Revision diagrama</t>
-  </si>
-  <si>
-    <t>Diagrama secuencia</t>
-  </si>
-  <si>
-    <t>Revisar C.Uso</t>
-  </si>
-  <si>
-    <t>Diag Clases Completo</t>
-  </si>
-  <si>
     <t>Contratos</t>
   </si>
   <si>
-    <t>Diag. Colab</t>
-  </si>
-  <si>
-    <t>Rev. Diag. Clases</t>
-  </si>
-  <si>
-    <t>Nuevos Contratos</t>
-  </si>
-  <si>
-    <t>Nuevos Diag. Colab</t>
-  </si>
-  <si>
-    <t>Rev. Todo anterior</t>
-  </si>
-  <si>
-    <t>Refinamiento</t>
-  </si>
-  <si>
     <t>Miercoles 7</t>
   </si>
   <si>
@@ -121,13 +67,238 @@
   </si>
   <si>
     <t>Viernes 23</t>
+  </si>
+  <si>
+    <t>req no func</t>
+  </si>
+  <si>
+    <t>Alberto Moreno Mantas</t>
+  </si>
+  <si>
+    <t>Francisco Legaza Bailón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raphael Colleau </t>
+  </si>
+  <si>
+    <t>Jose Antonio Escobar</t>
+  </si>
+  <si>
+    <t>Redactar doc.requisitos</t>
+  </si>
+  <si>
+    <t>Prototipo 1</t>
+  </si>
+  <si>
+    <t>Prototipo 2</t>
+  </si>
+  <si>
+    <t>Diag. Secuencia nuevos</t>
+  </si>
+  <si>
+    <t>Plantilla C.Uso con anotaciones del cliente</t>
+  </si>
+  <si>
+    <t>Casos de uso con anotaciones del cliente</t>
+  </si>
+  <si>
+    <t>Cambios en prototipo con anotaciones del cliente</t>
+  </si>
+  <si>
+    <t>Diag Clases Analisis</t>
+  </si>
+  <si>
+    <t>Diag Clases Diseño</t>
+  </si>
+  <si>
+    <t>Rev Diag. CU\ Diag. Paquetes</t>
+  </si>
+  <si>
+    <t>Revisar digs. Clases</t>
+  </si>
+  <si>
+    <t>Diseño BD</t>
+  </si>
+  <si>
+    <t>Diag Clases Diseño (cont)</t>
+  </si>
+  <si>
+    <r>
+      <t>Diagrama secuencia "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sistema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Diag.Secuencia "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Objetos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Contratos (cont)</t>
+  </si>
+  <si>
+    <r>
+      <t>Diag.Secuencia "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Objetos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" (cont)</t>
+    </r>
+  </si>
+  <si>
+    <t>Diag. Componentes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>← En este punto empieza la implementación</t>
+    </r>
+  </si>
+  <si>
+    <t>← FIESTA DE LA PRIMAVERA (procurrar tenerlo todo acabado)</t>
+  </si>
+  <si>
+    <t>Corrección de errores dichos por el grupo de implementación</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>Preparación previa para la implementacion</t>
+  </si>
+  <si>
+    <t>Imple. Interfaz</t>
+  </si>
+  <si>
+    <t>Crear tablas BD</t>
+  </si>
+  <si>
+    <t>Imple. Clases</t>
+  </si>
+  <si>
+    <t>Lunes 26</t>
+  </si>
+  <si>
+    <t>Martes 27</t>
+  </si>
+  <si>
+    <t>Miércoles 28</t>
+  </si>
+  <si>
+    <t>Jueves 29</t>
+  </si>
+  <si>
+    <t>Viernes 30</t>
+  </si>
+  <si>
+    <t>Imple. Acciones interfaz</t>
+  </si>
+  <si>
+    <t>Imple. Metodos Clase</t>
+  </si>
+  <si>
+    <t>Imple Metodos JDBC</t>
+  </si>
+  <si>
+    <t>← Para esta fecha se espera que este todo medio acabado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Cuando se llege a este punto y dependiendo como vaya el código se planificará de nuevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Es dificil seguir planificando apartir de este punto</t>
+  </si>
+  <si>
+    <t>Se planificara este tiempo dependiendo de los errores que se encuentro y de los retrasos que lleve el proyecto</t>
+  </si>
+  <si>
+    <t>← FIESTA DE LA PRIMAVERA</t>
+  </si>
+  <si>
+    <t>Requisitos Funcionales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +306,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +383,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -192,6 +420,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -202,6 +490,62 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -212,11 +556,145 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -224,18 +702,133 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,280 +1130,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="67"/>
+      <c r="L1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="67"/>
+      <c r="L2" s="66"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="67"/>
+      <c r="L3" s="66"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="67"/>
+      <c r="L4" s="66"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="66"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -820,97 +1469,165 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f>SUM(C2:C14)</f>
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <f>SUM(E2:E14)</f>
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <f>SUM(G2:G14)</f>
-        <v>11</v>
-      </c>
-      <c r="I17">
-        <f>SUM(I2:I14)</f>
-        <v>11</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29">
+        <f>SUM(C2:C22)</f>
+        <v>12</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29">
+        <f t="shared" ref="E23" si="0">SUM(E2:E22)</f>
+        <v>14</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29">
+        <f t="shared" ref="G23" si="1">SUM(G2:G22)</f>
+        <v>13</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29">
+        <f t="shared" ref="I23" si="2">SUM(I2:I22)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B14:I16"/>
+  <mergeCells count="2">
+    <mergeCell ref="B13:I16"/>
+    <mergeCell ref="B18:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -919,13 +1636,448 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="32">
+        <v>2</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="59">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="20">
+        <v>2</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="36">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="25">
+        <v>2</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="18">
+        <v>2</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="37">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="26">
+        <v>2</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="37">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="26">
+        <v>2</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29">
+        <f>SUM(C2:C22)</f>
+        <v>10</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29">
+        <f>SUM(E2:E22)</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29">
+        <f>SUM(G2:G22)</f>
+        <v>10</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29">
+        <f>SUM(I2:I22)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:I8"/>
+    <mergeCell ref="B18:I22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
